--- a/User/Stimuli/Practice_stimuli_lists.xlsx
+++ b/User/Stimuli/Practice_stimuli_lists.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Zhao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Zhao\github\zhao-haffey\eye-tracking-face-voice\User\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69DCCA-48B9-4E57-9371-A3F6DD627744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C406D-5A04-4CEC-A3ED-86FFEBE7E245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{0BBD69AE-A3E1-44B9-BB9B-C1F5E04B680E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{0BBD69AE-A3E1-44B9-BB9B-C1F5E04B680E}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice_list" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Audio File name</t>
   </si>
@@ -167,6 +167,78 @@
   </si>
   <si>
     <t>Video File name</t>
+  </si>
+  <si>
+    <t>video_1</t>
+  </si>
+  <si>
+    <t>audio_1</t>
+  </si>
+  <si>
+    <t>video_1_height</t>
+  </si>
+  <si>
+    <t>video_1_width</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>video_1_x</t>
+  </si>
+  <si>
+    <t>video_1_y</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_M21_A_Sp_D_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_M21_A_Sp_D_-5.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_M21_H_Sp_K_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_F14_A_So_K.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_F14_F_Sp_K_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_M21_F_So_D.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_M21_F_So_D_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_F14_F_Sp_K_-5.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_F14_A_So_K_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_M21_H_Sp_K.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_M21_N_So_K_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_F14_H_So_D_-5.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_F14_H_So_D_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_M21_N_So_K_-5.wav</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/V_F14_N_Sp_D_N1.mp4</t>
+  </si>
+  <si>
+    <t>../User/Stimuli/A_F14_N_Sp_D.wav</t>
   </si>
 </sst>
 </file>
@@ -532,20 +604,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23AF87-85C1-410E-A5C6-A5B90CB238CE}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="6" max="6" width="19.59765625" customWidth="1"/>
     <col min="7" max="7" width="24.796875" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="8" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.06640625" customWidth="1"/>
+    <col min="13" max="13" width="36.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -570,8 +644,29 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,8 +691,40 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>I2&amp;G2</f>
+        <v>../User/Stimuli/V_M21_A_Sp_D_N1.mp4</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>I2&amp;H2</f>
+        <v>../User/Stimuli/A_M21_A_Sp_D_-5.wav</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>5000</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -622,8 +749,40 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>I3&amp;G3</f>
+        <v>../User/Stimuli/V_M21_H_Sp_K_N1.mp4</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K9" si="0">I3&amp;H3</f>
+        <v>../User/Stimuli/A_F14_A_So_K.wav</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>400</v>
+      </c>
+      <c r="P3">
+        <v>5000</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -648,8 +807,40 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J3:J9" si="1">I4&amp;G4</f>
+        <v>../User/Stimuli/V_F14_F_Sp_K_N1.mp4</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_M21_F_So_D.wav</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>400</v>
+      </c>
+      <c r="P4">
+        <v>5000</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,8 +865,40 @@
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>../User/Stimuli/V_M21_F_So_D_N1.mp4</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_F14_F_Sp_K_-5.wav</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>400</v>
+      </c>
+      <c r="P5">
+        <v>5000</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -700,8 +923,40 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>../User/Stimuli/V_F14_A_So_K_N1.mp4</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_M21_H_Sp_K.wav</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>400</v>
+      </c>
+      <c r="P6">
+        <v>5000</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -726,8 +981,40 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>../User/Stimuli/V_M21_N_So_K_N1.mp4</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_F14_H_So_D_-5.wav</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>5000</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -752,8 +1039,40 @@
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>../User/Stimuli/V_F14_H_So_D_N1.mp4</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_M21_N_So_K_-5.wav</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+      <c r="P8">
+        <v>5000</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,6 +1096,38 @@
       </c>
       <c r="H9" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>../User/Stimuli/V_F14_N_Sp_D_N1.mp4</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>../User/Stimuli/A_F14_N_Sp_D.wav</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <v>400</v>
+      </c>
+      <c r="P9">
+        <v>5000</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE1710-7FC8-45C2-B7B5-0B773268CDC1}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
